--- a/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,62</t>
+          <t>2,35; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,46</t>
+          <t>7,97; 14,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,46</t>
+          <t>8,68; 15,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,43</t>
+          <t>4,76; 16,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,69</t>
+          <t>4,39; 9,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,36</t>
+          <t>9,43; 16,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,88</t>
+          <t>10,3; 17,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,65</t>
+          <t>2,11; 8,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,32</t>
+          <t>3,99; 7,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,32</t>
+          <t>9,46; 14,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,38</t>
+          <t>10,62; 15,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,09</t>
+          <t>4,25; 10,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,3</t>
+          <t>2,01; 5,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,53</t>
+          <t>6,47; 11,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,63</t>
+          <t>4,63; 9,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,58</t>
+          <t>4,07; 11,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,19</t>
+          <t>3,89; 8,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,05</t>
+          <t>9,26; 15,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,64</t>
+          <t>8,09; 13,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,39</t>
+          <t>3,13; 7,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,0</t>
+          <t>3,22; 5,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,26</t>
+          <t>8,48; 12,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,49</t>
+          <t>6,93; 10,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,17</t>
+          <t>4,18; 8,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,67</t>
+          <t>4,83; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 14,23</t>
+          <t>8,44; 13,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,77</t>
+          <t>5,34; 9,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,55</t>
+          <t>4,22; 8,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,52</t>
+          <t>3,92; 7,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,79</t>
+          <t>5,59; 10,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,13</t>
+          <t>4,03; 8,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,67</t>
+          <t>3,55; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,64</t>
+          <t>4,78; 7,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 10,9</t>
+          <t>7,57; 10,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,44</t>
+          <t>5,23; 8,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,86</t>
+          <t>4,14; 6,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,63</t>
+          <t>5,18; 10,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 16,73</t>
+          <t>10,3; 16,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 14,45</t>
+          <t>8,12; 14,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 33,6</t>
+          <t>6,6; 35,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,79</t>
+          <t>4,96; 9,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,24</t>
+          <t>6,12; 11,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,23</t>
+          <t>4,83; 9,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,1</t>
+          <t>3,01; 8,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,34</t>
+          <t>5,79; 9,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,01</t>
+          <t>9,11; 13,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,72</t>
+          <t>7,17; 10,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 23,82</t>
+          <t>5,16; 20,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 16,7</t>
+          <t>8,58; 16,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 22,3</t>
+          <t>14,38; 22,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,98</t>
+          <t>6,87; 13,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 10,8</t>
+          <t>6,53; 10,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,67</t>
+          <t>4,72; 10,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,98</t>
+          <t>6,6; 12,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,53</t>
+          <t>4,82; 10,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,57</t>
+          <t>4,52; 7,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,32</t>
+          <t>7,25; 12,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,4</t>
+          <t>11,0; 15,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,82</t>
+          <t>6,59; 10,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,67</t>
+          <t>5,84; 8,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 17,41</t>
+          <t>9,52; 16,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,66; 27,09</t>
+          <t>18,67; 26,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,48</t>
+          <t>7,27; 13,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,04</t>
+          <t>9,18; 13,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,32</t>
+          <t>6,23; 11,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,11; 19,19</t>
+          <t>12,97; 18,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,2</t>
+          <t>7,96; 14,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,82</t>
+          <t>5,45; 9,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 12,42</t>
+          <t>8,26; 12,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 21,33</t>
+          <t>16,3; 21,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,72</t>
+          <t>8,57; 12,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,52</t>
+          <t>7,13; 10,49</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,31</t>
+          <t>6,15; 8,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,34; 15,04</t>
+          <t>12,29; 14,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,37</t>
+          <t>8,14; 10,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,0</t>
+          <t>7,86; 14,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 7,76</t>
+          <t>5,91; 7,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,19</t>
+          <t>9,87; 12,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,89</t>
+          <t>7,69; 9,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,81</t>
+          <t>5,03; 6,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,69</t>
+          <t>6,24; 7,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,16</t>
+          <t>11,37; 13,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 9,88</t>
+          <t>8,33; 9,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,52</t>
+          <t>6,64; 10,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,66</t>
+          <t>2,51; 7,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 14,25</t>
+          <t>7,62; 14,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 15,66</t>
+          <t>8,2; 15,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,39</t>
+          <t>4,78; 9,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,61</t>
+          <t>9,66; 16,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 17,91</t>
+          <t>10,28; 17,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,38</t>
+          <t>4,0; 7,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 14,16</t>
+          <t>9,55; 14,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,53</t>
+          <t>10,25; 15,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,38</t>
+          <t>2,01; 5,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,33</t>
+          <t>6,4; 11,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,22</t>
+          <t>4,58; 9,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,26</t>
+          <t>3,92; 8,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,0</t>
+          <t>9,49; 15,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,72</t>
+          <t>8,17; 13,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,84</t>
+          <t>3,31; 5,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 12,18</t>
+          <t>8,5; 12,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,4</t>
+          <t>6,98; 10,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,46</t>
+          <t>4,88; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,82</t>
+          <t>8,59; 13,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,93</t>
+          <t>5,15; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,51</t>
+          <t>3,67; 7,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,0</t>
+          <t>5,63; 10,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,29</t>
+          <t>4,14; 8,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,9</t>
+          <t>4,74; 7,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,91</t>
+          <t>7,61; 11,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,28</t>
+          <t>5,21; 8,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,57</t>
+          <t>5,57; 10,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,66</t>
+          <t>10,4; 16,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,29</t>
+          <t>8,45; 14,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,75</t>
+          <t>4,9; 9,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,12</t>
+          <t>6,1; 11,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,09</t>
+          <t>4,72; 9,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,23</t>
+          <t>5,61; 9,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,2</t>
+          <t>8,98; 12,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,75</t>
+          <t>6,98; 10,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,1</t>
+          <t>8,61; 16,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 22,23</t>
+          <t>14,3; 22,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,26</t>
+          <t>6,7; 13,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,8</t>
+          <t>4,49; 10,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,88</t>
+          <t>6,66; 13,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,66</t>
+          <t>4,9; 10,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,13</t>
+          <t>7,52; 11,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,93</t>
+          <t>11,25; 16,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,46</t>
+          <t>6,45; 10,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 16,97</t>
+          <t>9,29; 16,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,67; 26,82</t>
+          <t>18,7; 27,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,09</t>
+          <t>7,17; 13,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,53</t>
+          <t>6,34; 11,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 18,86</t>
+          <t>12,98; 19,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 14,1</t>
+          <t>7,87; 14,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,49</t>
+          <t>8,31; 12,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,3; 21,31</t>
+          <t>16,51; 21,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,64</t>
+          <t>8,36; 12,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,35</t>
+          <t>6,21; 8,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 14,91</t>
+          <t>12,32; 15,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 10,29</t>
+          <t>8,21; 10,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,81</t>
+          <t>5,84; 7,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,21</t>
+          <t>9,91; 12,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,97</t>
+          <t>7,86; 10,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,65</t>
+          <t>6,33; 7,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,05</t>
+          <t>11,35; 13,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,93</t>
+          <t>8,24; 9,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
